--- a/data/현행추정부채_자동차/자동차_상품군정보.xlsx
+++ b/data/현행추정부채_자동차/자동차_상품군정보.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDGR_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,32 +80,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개인용자동차(인담보)</t>
-  </si>
-  <si>
-    <t>개인용자동차(물담보)</t>
-  </si>
-  <si>
-    <t>업무용자동차(인담보)</t>
-  </si>
-  <si>
-    <t>업무용자동차(물담보)</t>
-  </si>
-  <si>
-    <t>영업용자동차(인담보)</t>
-  </si>
-  <si>
-    <t>영업용자동차(물담보)</t>
-  </si>
-  <si>
     <t>PDGR_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOZ_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,6 +165,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -206,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,677 +473,688 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>